--- a/aplicaciones/www/estaticos/datos/YA1_1.7.xlsx
+++ b/aplicaciones/www/estaticos/datos/YA1_1.7.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -41,10 +44,10 @@
     <t>codmpio</t>
   </si>
   <si>
-    <t>desnutricion</t>
+    <t>base</t>
   </si>
   <si>
-    <t>base</t>
+    <t>desnutricion</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,7 +434,7 @@
       <selection activeCell="F1809" sqref="F1809"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -441,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
